--- a/Test_task/ImportData/checks.xlsx
+++ b/Test_task/ImportData/checks.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>СМП</t>
   </si>
@@ -73,6 +73,18 @@
   </si>
   <si>
     <t>буквы</t>
+  </si>
+  <si>
+    <t>Роспотребнадзор</t>
+  </si>
+  <si>
+    <t>Федеральная антимонопольная служба</t>
+  </si>
+  <si>
+    <t>Санэпидемстанция</t>
+  </si>
+  <si>
+    <t>Миграционная служба</t>
   </si>
 </sst>
 </file>
@@ -411,16 +423,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
     <col min="3" max="3" width="21.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.5546875" customWidth="1"/>
     <col min="5" max="5" width="38.33203125" customWidth="1"/>
@@ -545,7 +557,76 @@
         <v>25</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>